--- a/ProbabilityAndStatistics/final/parcial4_repaso.xlsx
+++ b/ProbabilityAndStatistics/final/parcial4_repaso.xlsx
@@ -5,18 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\ULSA-6th-Semester\ProbabilityAndStatistics\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\ULSA-6th-Semester\ProbabilityAndStatistics\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA202D35-C402-4045-884B-21A2D76819F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA94EE1-4155-42EC-8615-61D0660113A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8EA4A3C7-38CD-4F7F-A195-C12DAE74DF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8EA4A3C7-38CD-4F7F-A195-C12DAE74DF90}"/>
   </bookViews>
   <sheets>
     <sheet name="hipergeometrica" sheetId="1" r:id="rId1"/>
     <sheet name="poisson" sheetId="2" r:id="rId2"/>
     <sheet name="exponencial" sheetId="3" r:id="rId3"/>
+    <sheet name="smirnov" sheetId="4" r:id="rId4"/>
+    <sheet name="shapiro wilks" sheetId="5" r:id="rId5"/>
+    <sheet name="formulario" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">smirnov!$B$4:$D$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t xml:space="preserve">En la ciudad de Chihuahua existen 12809 empresas de las cuales sólo 428 tienen un departamento de sistemas establecido. Si seleccionamos 62 empresas en la ciudad de Chihuahua de forma aleatoria. Determine: </t>
   </si>
@@ -137,14 +143,135 @@
   <si>
     <t>2. La probabilidad de que una falla se presente en más de 3 días</t>
   </si>
+  <si>
+    <t>día</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>desv std</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>i/n</t>
+  </si>
+  <si>
+    <t>zi</t>
+  </si>
+  <si>
+    <t>p(xi)=f0(xi)</t>
+  </si>
+  <si>
+    <t>D-</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>calculos</t>
+  </si>
+  <si>
+    <t>D ALFA</t>
+  </si>
+  <si>
+    <t>PARA SACAR D ALFA NECESITAMOS KN Y C ALFA</t>
+  </si>
+  <si>
+    <t>C alfa=</t>
+  </si>
+  <si>
+    <t>(ESTA EN UNA TABLA)</t>
+  </si>
+  <si>
+    <t>Kn=</t>
+  </si>
+  <si>
+    <t>Da=</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>D=</t>
+  </si>
+  <si>
+    <t>D alfa=</t>
+  </si>
+  <si>
+    <t>el mayor es</t>
+  </si>
+  <si>
+    <t>D alfa</t>
+  </si>
+  <si>
+    <t>CONCLUSION</t>
+  </si>
+  <si>
+    <t>D=&lt;Dalfa</t>
+  </si>
+  <si>
+    <t>ACEPTAMOS LA HIPOTESIS CON UNA CONFIABILIDAD DEL 99% EN UNA PRUEBA DE BONDAD DE AJUSTE DE KORMOGOLOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La M se sustituye por "Normal" </t>
+  </si>
+  <si>
+    <t>xi^2</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>ai*xd</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>Sh^2=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>wc=</t>
+  </si>
+  <si>
+    <t>wta=</t>
+  </si>
+  <si>
+    <t>es decir wc</t>
+  </si>
+  <si>
+    <t>POR LO TANTO</t>
+  </si>
+  <si>
+    <t>SI SE ACEPTA LA HIPOTESIS NULA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -176,7 +303,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +322,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,36 +352,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,6 +881,4437 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77483</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>150860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E04D86-73C0-BE51-F2AE-C096C99BDF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629478" y="10552043"/>
+          <a:ext cx="3258005" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563304</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B62A026-4877-4E0C-87BC-C18B6D5586A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="228600"/>
+          <a:ext cx="9526329" cy="1095528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257849</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5BDA98-A87E-4226-A2B0-6B3D0BA20D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2095500"/>
+          <a:ext cx="4829849" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF00613-7424-480C-8450-817EF7358EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="4000500"/>
+          <a:ext cx="4572638" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>706331</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4687C5B-28FD-4E1F-8227-143E1CA6A9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="5905500"/>
+          <a:ext cx="10612331" cy="1590897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86269</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38EB6B2-44B3-450F-9B02-26DD67E027DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="8001000"/>
+          <a:ext cx="3896269" cy="857370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591377</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A159E6-A8D0-4DF4-B002-4153B79EBEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="9525000"/>
+          <a:ext cx="5925377" cy="2972215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>305305</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59489B62-4663-4ACD-8EFF-C8513DCED120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="12763500"/>
+          <a:ext cx="6401305" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC58B7D-57CD-43C6-9F60-CEE150C8BC52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="15811500"/>
+          <a:ext cx="1790950" cy="933580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>597388</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>111443</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD2B8B3-1266-47D8-8F70-4B2C4615E94F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1524000" y="19050000"/>
+              <a:ext cx="10503388" cy="492443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑯</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑳𝒐𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒂𝒕𝒐𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒑𝒆𝒓𝒕𝒆𝒏𝒆𝒄𝒆𝒏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒖𝒏𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒊𝒔𝒕𝒓𝒊𝒃𝒖𝒄𝒊</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>ó</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒏𝒐𝒓𝒎𝒂𝒍</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD2B8B3-1266-47D8-8F70-4B2C4615E94F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1524000" y="19050000"/>
+              <a:ext cx="10503388" cy="492443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑯_𝟎;𝑳𝒐𝒔 𝒅𝒂𝒕𝒐𝒔 𝒑𝒆𝒓𝒕𝒆𝒏𝒆𝒄𝒆𝒏 𝒂 𝒖𝒏𝒂 𝒅𝒊𝒔𝒕𝒓𝒊𝒃𝒖𝒄𝒊ó𝒏 𝒏𝒐𝒓𝒎𝒂𝒍</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>4553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449339</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>115996</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576F17D1-9E76-4AF1-8886-1C0821A688E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1524000" y="20007053"/>
+              <a:ext cx="11117339" cy="492443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑯</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑳𝒐𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒂𝒕𝒐𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑵𝑶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒑𝒆𝒓𝒕𝒆𝒏𝒆𝒄𝒆𝒏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒖𝒏𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒊𝒔𝒕𝒓𝒊𝒃𝒖𝒄𝒊</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>ó</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒏𝒐𝒓𝒎𝒂𝒍</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576F17D1-9E76-4AF1-8886-1C0821A688E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1524000" y="20007053"/>
+              <a:ext cx="11117339" cy="492443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑯_𝟏;𝑳𝒐𝒔 𝒅𝒂𝒕𝒐𝒔 𝑵𝑶 𝒑𝒆𝒓𝒕𝒆𝒏𝒆𝒄𝒆𝒏 𝒂 𝒖𝒏𝒂 𝒅𝒊𝒔𝒕𝒓𝒊𝒃𝒖𝒄𝒊ó𝒏 𝒏𝒐𝒓𝒎𝒂𝒍</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308043</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9753</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectángulo 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77240F19-D760-4DE7-9C67-84796A6EEAC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2286000" y="21145500"/>
+              <a:ext cx="2594043" cy="1343253"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑾𝒄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒃</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟐</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑺𝒉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟐</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectángulo 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77240F19-D760-4DE7-9C67-84796A6EEAC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2286000" y="21145500"/>
+              <a:ext cx="2594043" cy="1343253"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑾𝒄=𝒃^𝟐/〖𝑺𝒉〗^𝟐 </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>684094</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>127183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428614</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>73069</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Rectángulo 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB374EA-890D-4512-B0CB-8A9D7C6B5CE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5256094" y="21463183"/>
+              <a:ext cx="8126520" cy="707886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑾</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>α</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑽𝒂𝒍𝒐𝒓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒄𝒐𝒏𝒕𝒓𝒂𝒔𝒕𝒆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> (</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>α</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>) </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Rectángulo 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB374EA-890D-4512-B0CB-8A9D7C6B5CE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5256094" y="21463183"/>
+              <a:ext cx="8126520" cy="707886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑾𝒕_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑽𝒂𝒍𝒐𝒓 𝒅𝒆 𝒄𝒐𝒏𝒕𝒓𝒂𝒔𝒕𝒆 (𝒏,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>) </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>719047</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>35810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235866</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>49085</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectángulo 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B460764F-D61A-4EA5-BBA2-FD3CB935C787}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6815047" y="22324310"/>
+              <a:ext cx="5612819" cy="584775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>α</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑵𝒊𝒗𝒆𝒍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑺𝒊𝒈𝒏𝒊𝒇𝒊𝒄𝒂𝒏𝒄𝒊𝒂</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectángulo 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B460764F-D61A-4EA5-BBA2-FD3CB935C787}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6815047" y="22324310"/>
+              <a:ext cx="5612819" cy="584775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑵𝒊𝒗𝒆𝒍 𝒅𝒆 𝑺𝒊𝒈𝒏𝒊𝒇𝒊𝒄𝒂𝒏𝒄𝒊𝒂</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>719047</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>141423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69994</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>154698</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectángulo 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8092C36-007D-437C-B55B-E671C7EAC1D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6815047" y="23191923"/>
+              <a:ext cx="6970947" cy="584775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑪</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑵𝒊𝒗𝒆𝒍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑪𝒐𝒏𝒇𝒊𝒂𝒏𝒛𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>α</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectángulo 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8092C36-007D-437C-B55B-E671C7EAC1D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6815047" y="23191923"/>
+              <a:ext cx="6970947" cy="584775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑵.𝑪.=𝑵𝒊𝒗𝒆𝒍 𝒅𝒆 𝑪𝒐𝒏𝒇𝒊𝒂𝒏𝒛𝒂=𝟏−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>686204</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>19016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200913</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>155402</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Rectángulo 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7713FCD9-1C57-4586-AE48-C7B9CEC45536}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3734204" y="24974516"/>
+              <a:ext cx="7134709" cy="707886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑺𝒊</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑾𝒄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑾</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>α</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> ;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑺𝒆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒂𝒄𝒆𝒑𝒕𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑯</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Rectángulo 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7713FCD9-1C57-4586-AE48-C7B9CEC45536}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3734204" y="24974516"/>
+              <a:ext cx="7134709" cy="707886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑺𝒊 𝑾𝒄≥𝑾𝒕_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  ;𝑺𝒆 𝒂𝒄𝒆𝒑𝒕𝒂 𝑯_𝟎  </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>686203</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>112831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>24009</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>58717</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Rectángulo 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43E4B11-FC6E-494A-B4F6-221499E2D60A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3734203" y="25830331"/>
+              <a:ext cx="7719806" cy="707886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑺𝒊</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑾𝒄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑾</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒕</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>α</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> ;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑵𝒐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒔𝒆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒂𝒄𝒆𝒑𝒕𝒂</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑯</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="4000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Rectángulo 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43E4B11-FC6E-494A-B4F6-221499E2D60A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3734203" y="25830331"/>
+              <a:ext cx="7719806" cy="707886"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑺𝒊 𝑾𝒄&lt;𝑾𝒕_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="4000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  ;𝑵𝒐 𝒔𝒆 𝒂𝒄𝒆𝒑𝒕𝒂 𝑯_𝟎  </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="4000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449983</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>127342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>691858</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>120038</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Rectángulo 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F47F708-B472-4E40-B76E-89A34A90372F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1973983" y="22987342"/>
+              <a:ext cx="3289875" cy="1135696"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="002060"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑺</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="002060"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="002060"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="002060"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="002060"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="002060"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="002060"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="002060"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="002060"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒊</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="002060"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟐</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="002060"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="002060"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒏</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="002060"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="002060"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                                <a:solidFill>
+                                  <a:srgbClr val="002060"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="2800" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="002060"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="2800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Rectángulo 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F47F708-B472-4E40-B76E-89A34A90372F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1973983" y="22987342"/>
+              <a:ext cx="3289875" cy="1135696"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="es-MX"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="2800" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑺𝒉^𝟐=∑▒𝒙_𝒊^𝟐 −𝒏𝒙 ̅^𝟐</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="2800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801582" cy="915956"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AB709B-9F41-4777-A4F8-5D8BBEC48A35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5334000" y="15811500"/>
+              <a:ext cx="1801582" cy="915956"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="3200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒔</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AB709B-9F41-4777-A4F8-5D8BBEC48A35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5334000" y="15811500"/>
+              <a:ext cx="1801582" cy="915956"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒛=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙−𝒙 ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="3200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/𝒔</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1487202" cy="500971"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A5BFB-8C10-4873-AD17-F670F1517F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8044543" y="16031936"/>
+          <a:ext cx="1487202" cy="500971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="3200" b="1"/>
+            <a:t>N.C.=1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="3200" b="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1045,22 +5635,22 @@
       <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +5666,7 @@
         <v>9.6876095367763551E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +5674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +5682,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1100,12 +5690,12 @@
         <v>12809</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +5711,7 @@
         <v>0.94426753721444734</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +5719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +5727,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1145,12 +5735,12 @@
         <v>12809</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +5754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +5762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +5785,7 @@
         <v>1.0117996383638417E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1203,12 +5793,12 @@
         <v>12809</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D49">
         <f>D44+I44</f>
         <v>0.65796589381335069</v>
@@ -1218,15 +5808,12 @@
         <v>0.65796589381335069</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +5825,7 @@
         <v>0.99996458027667745</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +5841,7 @@
         <v>1.7034645508123614E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +5853,7 @@
         <v>0.98292993476855384</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -1283,36 +5870,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AC75BD-1229-4A73-8734-841B321168C5}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +5915,7 @@
         <v>0.10419563456702115</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1336,12 +5923,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>_xlfn.POISSON.DIST(8,4,1)</f>
         <v>0.97863656551201583</v>
@@ -1355,12 +5942,12 @@
         <v>2.1363434487984168E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>_xlfn.POISSON.DIST(6,4,1)</f>
         <v>0.88932602159742624</v>
@@ -1370,18 +5957,18 @@
         <v>0.88932602159742624</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <f>_xlfn.POISSON.DIST(5,4,1)</f>
         <v>0.78513038703040516</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42">
         <f>B41-B43</f>
         <v>0.69355219258673428</v>
@@ -1391,14 +5978,11 @@
         <v>0.69355219258673428</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>_xlfn.POISSON.DIST(1,4,1)</f>
         <v>9.1578194443670893E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L47" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1413,41 +5997,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1441F2-B5D7-412C-A8B2-138BEE24B00D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1461,129 +6045,129 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <f>_xlfn.EXPON.DIST(F7,0.8,0)</f>
         <v>0.8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <f>G7</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <f t="shared" ref="G8:G19" si="0">_xlfn.EXPON.DIST(F8,0.8,0)</f>
         <v>0.35946317129377725</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <f t="shared" ref="H8:H19" si="1">G8</f>
         <v>0.35946317129377725</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>0.16151721439572431</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.16151721439572431</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <f>4/5</f>
         <v>0.8</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>7.2574362631529984E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>7.2574362631529984E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>3.2609763182692972E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>3.2609763182692972E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <f>1/1.25</f>
         <v>0.8</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>1.4652511110987344E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>1.4652511110987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>6.5837976392160193E-3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>6.5837976392160193E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <v>7</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>2.9582909731863433E-3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>2.9582909731863433E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>_xlfn.EXPON.DIST(2,0.8,1)</f>
         <v>0.79810348200534464</v>
@@ -1595,73 +6179,73 @@
       <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>1.3292458185391472E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>1.3292458185391472E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <v>9</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>5.9726864670134338E-4</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>5.9726864670134338E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>2.6837010232200952E-4</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>2.6837010232200952E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="1">
         <v>11</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>1.2058646007638121E-4</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>1.2058646007638121E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
         <v>12</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>5.4182989192683024E-5</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>5.4182989192683024E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>_xlfn.EXPON.DIST(3,0.8,1)</f>
         <v>0.90928204671058754</v>
@@ -1682,4 +6266,1936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C5DB04-DC48-42C2-8592-AF7DE84CE5BD}">
+  <dimension ref="A1:L64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(D5:D34)</f>
+        <v>76.136666666666684</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.STDEV.S(D5:D34)</f>
+        <v>4.3605190558902054</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(D5-$H$1)/$H$2</f>
+        <v>-1.6366553098825354</v>
+      </c>
+      <c r="G5" s="1">
+        <f>NORMSDIST(F5)</f>
+        <v>5.0851255883749294E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>E5-G5</f>
+        <v>-1.7517922550415961E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <f>G5-((C5-1)/30)</f>
+        <v>5.0851255883749294E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E34" si="0">C6/30</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F34" si="1">(D6-$H$1)/$H$2</f>
+        <v>-1.5449231112903323</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G34" si="2">NORMSDIST(F6)</f>
+        <v>6.1182431246537938E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H34" si="3">E6-G6</f>
+        <v>5.4842354201287274E-3</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" ref="I6:I34" si="4">G6-((C6-1)/30)</f>
+        <v>2.7849097913204605E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4302578630500804</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6321511837808428E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3678488162191577E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="4"/>
+        <v>9.6548451711417627E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4302578630500804</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6321511837808428E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7011821495524903E-2</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="4"/>
+        <v>-2.3678488162191577E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4073248134020311</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9665547364025105E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>8.7001119302641552E-2</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="4"/>
+        <v>-5.3667785969308227E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0862621183293242</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1386815208162758</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1318479183724212E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="4"/>
+        <v>-2.7985145850390858E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.99452991973712435</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15998247329493068</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>7.335086003840266E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="4"/>
+        <v>-4.0017526705069334E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.71933332396051874</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23596778408859079</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0698882578075876E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6344507552574503E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.6276011253683158</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26513263565433243</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4867364345667562E-2</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="4"/>
+        <v>-1.534031012334236E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.26067233099951048</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3971726025955562</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.3839269262222886E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="4"/>
+        <v>9.7172602595556212E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.26067233099951048</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3971726025955562</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.050593592888956E-2</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3839269262222886E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.26067233099951048</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3971726025955562</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.827397404443821E-3</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="4"/>
+        <v>3.050593592888956E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.23773928135146136</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4060416574347549</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7291675898578449E-2</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0416574347548768E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.12307403311120928</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45102423675298653</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5642429913680145E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7690903419653181E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.1001409834631569</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46011619937280041</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9883800627199595E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="4"/>
+        <v>-6.5504672938662689E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.4087848709572064E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49664541972064385</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6687913612689471E-2</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="4"/>
+        <v>-3.3545802793561452E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3323413721245757E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5332028082153053</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>3.346385845136135E-2</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="4"/>
+        <v>-1.3052511802802425E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17505561231344871</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56948203206757708</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0517967932422896E-2</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8153654009104301E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33558695984979903</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63140882058314185</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9245127501914538E-3</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="4"/>
+        <v>3.1408820583141872E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40438610879395287</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6570355932147498</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>9.6310734519168273E-3</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="4"/>
+        <v>2.3702259881416499E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51905135703420491</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69813753597805239</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.862464021947563E-3</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="4"/>
+        <v>3.1470869311385763E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70251575421860757</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7588212098139766</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.5487876480643323E-2</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="4"/>
+        <v>5.8821209813976649E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70251575421860757</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7588212098139766</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8454568526901136E-3</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="4"/>
+        <v>2.5487876480643323E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84011405210690882</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79957777901020965</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2222098979038947E-4</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="4"/>
+        <v>3.2911112343542936E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0694445485874129</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85756529863541719</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.4231965302083824E-2</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="4"/>
+        <v>5.756529863541715E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1153106478835144</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86764133795821563</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.7467129154893417E-4</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="4"/>
+        <v>3.430800462488226E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2070428464757175</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88629217818960648</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3707821810393539E-2</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="4"/>
+        <v>1.9625511522939787E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.39050724366012</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91781254938583334</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5520783947500005E-2</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7812549385833321E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6886368890847747</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95435548159264449</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.231118507402218E-2</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1022148259311146E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8950343359172297</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97095607354674374</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9043926453256264E-2</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="4"/>
+        <v>4.2894068800770624E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <f>MAX(H5:H34)</f>
+        <v>8.7001119302641552E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <f>MAX(I5:I34)</f>
+        <v>9.7172602595556212E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <f>MAX(C38:D38)</f>
+        <v>9.7172602595556212E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f>SQRT(30)-0.01+(0.85/SQRT(30))</f>
+        <v>5.6224136330114582</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <f>B46/B48</f>
+        <v>0.18408464185614118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <f>C40</f>
+        <v>9.7172602595556212E-2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <f>MAX(B54:B55)</f>
+        <v>0.18408464185614118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <f>B50</f>
+        <v>0.18408464185614118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B68928-329C-4E7C-B27C-771A02FE4CBF}">
+  <dimension ref="B4:H50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5^2</f>
+        <v>4761</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4254</v>
+      </c>
+      <c r="G5" s="1">
+        <f>D34-D5</f>
+        <v>15.400000000000006</v>
+      </c>
+      <c r="H5" s="1">
+        <f>F5*G5</f>
+        <v>6.5511600000000021</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E34" si="0">D6^2</f>
+        <v>4816.3600000000006</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2944</v>
+      </c>
+      <c r="G6" s="1">
+        <f>D33-D6</f>
+        <v>14.099999999999994</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H19" si="1">F6*G6</f>
+        <v>4.1510399999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4886.0100000000011</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2487</v>
+      </c>
+      <c r="G7" s="1">
+        <f>D32-D7</f>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0590099999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4886.0100000000011</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <f>D31-D8</f>
+        <v>11.5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4701999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="G9" s="1">
+        <f>D30-D9</f>
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>5097.9600000000009</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <f>D29-D10</f>
+        <v>9.3999999999999915</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5321999999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>5155.24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <f>D28-D11</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1319999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>5329</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f>D27-D12</f>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75578000000000034</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>5387.56</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1036</v>
+      </c>
+      <c r="G13" s="1">
+        <f>D26-D13</f>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60087999999999964</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <f>D25-D14</f>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29308000000000051</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <f>D24-D15</f>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20213000000000039</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <f>D23-D16</f>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13961999999999969</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>5640.0099999999993</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <f>D22-D17</f>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8580000000000432E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>5715.3599999999988</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <f>D21-D18</f>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0430000000000129E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>5730.4900000000007</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <f>D20-D19</f>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0399999999999351E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>5791.2099999999991</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>5852.25</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>5913.6100000000006</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>6021.7599999999993</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>6068.4100000000008</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>6146.5600000000013</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>6272.64</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>6272.64</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>6368.04</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>6528.6399999999994</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>6561</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>6625.9600000000009</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>6756.84</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>6972.25</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>7123.3600000000006</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="16">
+        <f>SUM(D5:D34)</f>
+        <v>2284.1000000000004</v>
+      </c>
+      <c r="E35" s="17">
+        <f>SUM(E5:E34)</f>
+        <v>174455.16999999998</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="H35" s="15">
+        <f>SUM(H5:H19)</f>
+        <v>23.036150000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1">
+        <f>AVERAGE(D5:D34)</f>
+        <v>76.136666666666684</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <f>E35-C37*C38^2</f>
+        <v>551.40966666658642</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <f>H35</f>
+        <v>23.036150000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <f>C43^2/C41</f>
+        <v>0.96237740994005783</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="18">
+        <f>MAX(C45,F45)</f>
+        <v>0.96237740994005783</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB93EA1-F7C1-4132-84F5-898BAA8C1D59}">
+  <dimension ref="D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>